--- a/data/Bitcoin/Bitcoin20170701.xlsx
+++ b/data/Bitcoin/Bitcoin20170701.xlsx
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137">
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145">
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="154">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="163">
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="166">
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="172">
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173">
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="175">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="180">
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="181">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185">
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
